--- a/healthcare_backend/src/main/webapp/template/ordersetting_template.xlsx
+++ b/healthcare_backend/src/main/webapp/template/ordersetting_template.xlsx
@@ -1,45 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F553F50-9932-488B-880C-229DEFDA8680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="预约设置模板" sheetId="1" r:id="rId1"/>
+    <sheet name="OrderSettingsTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Date</t>
   </si>
   <si>
-    <t>可预约数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Available （Number Of Patients）</t>
+  </si>
+  <si>
+    <t>Duty: This form allows doctor to set the number of check-up appointment can be made for patients each day.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -48,7 +50,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -97,7 +99,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,17 +109,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +204,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +256,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,26 +449,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/healthcare_backend/src/main/webapp/template/ordersetting_template.xlsx
+++ b/healthcare_backend/src/main/webapp/template/ordersetting_template.xlsx
@@ -3,27 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F553F50-9932-488B-880C-229DEFDA8680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B51C0-C7E2-4855-AA87-834F1BAEDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OrderSettingsTemplate" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Available （Number Of Patients）</t>
-  </si>
-  <si>
-    <t>Duty: This form allows doctor to set the number of check-up appointment can be made for patients each day.</t>
+    <t xml:space="preserve">Available </t>
   </si>
 </sst>
 </file>
@@ -450,211 +447,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>44562</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3"/>
+      <c r="B2" s="1">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/healthcare_backend/src/main/webapp/template/ordersetting_template.xlsx
+++ b/healthcare_backend/src/main/webapp/template/ordersetting_template.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B51C0-C7E2-4855-AA87-834F1BAEDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943AAE7D-C990-48EF-A6B5-1D6FB2E36B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="28800" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="预约设置模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -20,7 +20,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Available </t>
+    <t>Available</t>
   </si>
 </sst>
 </file>
@@ -447,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,9 +469,225 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B2" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
+        <v>44594</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>44595</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>44596</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>44598</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>44599</v>
+      </c>
+      <c r="B8" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>44600</v>
+      </c>
+      <c r="B9" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
+        <v>44601</v>
+      </c>
+      <c r="B10" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>44602</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>44604</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>44605</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>44606</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <v>44607</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>44608</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>44609</v>
+      </c>
+      <c r="B18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>44610</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>44611</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B21" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B22" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B26" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B28" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B29" s="1">
         <v>300</v>
       </c>
     </row>
